--- a/beastiary.xlsx
+++ b/beastiary.xlsx
@@ -830,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,27 +1045,27 @@
         <v>-2</v>
       </c>
       <c r="AF2" s="1">
-        <f>_xlfn.FLOOR.MATH((O2-10)/2)</f>
+        <f t="shared" ref="AF2:AK2" si="0">_xlfn.FLOOR.MATH((O2-10)/2)</f>
         <v>1</v>
       </c>
       <c r="AG2" s="1">
-        <f>_xlfn.FLOOR.MATH((P2-10)/2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="AH2" s="1">
-        <f>_xlfn.FLOOR.MATH((Q2-10)/2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AI2" s="1">
-        <f>_xlfn.FLOOR.MATH((R2-10)/2)</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="AJ2" s="1">
-        <f>_xlfn.FLOOR.MATH((S2-10)/2)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="AK2" s="1">
-        <f>_xlfn.FLOOR.MATH((T2-10)/2)</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
     </row>
@@ -1092,22 +1092,22 @@
         <v>10</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H10" si="0">G3-(10+AG3)</f>
+        <f t="shared" ref="H3:H10" si="1">G3-(10+AG3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I63" si="1">G3</f>
+        <f t="shared" ref="I3:I29" si="2">G3</f>
         <v>10</v>
       </c>
       <c r="J3" s="7">
         <v>4</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K63" si="2">(_xlfn.CEILING.MATH(N3/2)+AH3)*M3</f>
+        <f t="shared" ref="K3:K29" si="3">(_xlfn.CEILING.MATH(N3/2)+AH3)*M3</f>
         <v>4</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L63" si="3">J3-K3</f>
+        <f t="shared" ref="L3:L29" si="4">J3-K3</f>
         <v>0</v>
       </c>
       <c r="M3" s="3">
@@ -1144,31 +1144,31 @@
         <v>10</v>
       </c>
       <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE63" si="4">AG3</f>
+        <f t="shared" ref="AE3:AE29" si="5">AG3</f>
         <v>0</v>
       </c>
       <c r="AF3" s="1">
-        <f t="shared" ref="AF3:AF63" si="5">_xlfn.FLOOR.MATH((O3-10)/2)</f>
+        <f t="shared" ref="AF3:AF29" si="6">_xlfn.FLOOR.MATH((O3-10)/2)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AG63" si="6">_xlfn.FLOOR.MATH((P3-10)/2)</f>
+        <f t="shared" ref="AG3:AG29" si="7">_xlfn.FLOOR.MATH((P3-10)/2)</f>
         <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" ref="AH3:AH63" si="7">_xlfn.FLOOR.MATH((Q3-10)/2)</f>
+        <f t="shared" ref="AH3:AH29" si="8">_xlfn.FLOOR.MATH((Q3-10)/2)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" ref="AI3:AI63" si="8">_xlfn.FLOOR.MATH((R3-10)/2)</f>
+        <f t="shared" ref="AI3:AI29" si="9">_xlfn.FLOOR.MATH((R3-10)/2)</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <f t="shared" ref="AJ3:AJ63" si="9">_xlfn.FLOOR.MATH((S3-10)/2)</f>
+        <f t="shared" ref="AJ3:AJ29" si="10">_xlfn.FLOOR.MATH((S3-10)/2)</f>
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" ref="AK3:AK63" si="10">_xlfn.FLOOR.MATH((T3-10)/2)</f>
+        <f t="shared" ref="AK3:AK29" si="11">_xlfn.FLOOR.MATH((T3-10)/2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1192,22 +1192,22 @@
         <v>12</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J4" s="7">
         <v>9</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M4" s="3">
@@ -1244,31 +1244,31 @@
         <v>25</v>
       </c>
       <c r="AE4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1292,22 +1292,22 @@
         <v>15</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J5" s="7">
         <v>7</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M5" s="5">
@@ -1344,31 +1344,31 @@
         <v>50</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="AK5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
     </row>
@@ -1392,22 +1392,22 @@
         <v>17</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J6" s="9">
         <v>21</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="M6" s="5">
@@ -1447,31 +1447,31 @@
         <v>68</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="AK6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1495,22 +1495,22 @@
         <v>11</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="J7" s="7">
         <v>59</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="M7" s="5">
@@ -1547,31 +1547,31 @@
         <v>450</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
       <c r="AK7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
     </row>
@@ -1598,22 +1598,22 @@
         <v>12</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J8" s="7">
         <v>30</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M8" s="5">
@@ -1650,31 +1650,31 @@
         <v>200</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="AJ8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="AK8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -1698,22 +1698,22 @@
         <v>15</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J9" s="7">
         <v>84</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="M9" s="5">
@@ -1753,31 +1753,31 @@
         <v>10</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="AJ9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="AK9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
     </row>
@@ -1801,22 +1801,22 @@
         <v>15</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J10" s="7">
         <v>22</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M10" s="5">
@@ -1856,31 +1856,31 @@
         <v>93</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
     </row>
@@ -1904,22 +1904,22 @@
         <v>13</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H11:H24" si="11">G11-(10+AG11)</f>
+        <f t="shared" ref="H11:H24" si="12">G11-(10+AG11)</f>
         <v>2</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" ref="I11" si="12">G11</f>
+        <f t="shared" ref="I11" si="13">G11</f>
         <v>13</v>
       </c>
       <c r="J11" s="7">
         <v>23</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11" si="13">(_xlfn.CEILING.MATH(N11/2)+AH11)*M11</f>
+        <f t="shared" ref="K11" si="14">(_xlfn.CEILING.MATH(N11/2)+AH11)*M11</f>
         <v>20</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11" si="14">J11-K11</f>
+        <f t="shared" ref="L11" si="15">J11-K11</f>
         <v>3</v>
       </c>
       <c r="M11" s="5">
@@ -1959,31 +1959,31 @@
         <v>93</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
     </row>
@@ -2007,22 +2007,22 @@
         <v>15</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J12" s="7">
         <v>49</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="M12" s="5">
@@ -2062,31 +2062,31 @@
         <v>93</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
     </row>
@@ -2110,22 +2110,22 @@
         <v>14</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="J13" s="7">
         <v>200</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="M13" s="5">
@@ -2165,31 +2165,31 @@
         <v>111</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AK13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -2213,22 +2213,22 @@
         <v>18</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J14" s="7">
         <v>162</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M14" s="5">
@@ -2265,31 +2265,31 @@
         <v>5000</v>
       </c>
       <c r="AE14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -2313,22 +2313,22 @@
         <v>15</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J15" s="7">
         <v>138</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M15" s="5">
@@ -2365,31 +2365,31 @@
         <v>3900</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AG15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="AJ15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
         <v>13</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="J16" s="7">
         <v>105</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="M16" s="5">
@@ -2465,31 +2465,31 @@
         <v>1800</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="AK16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
     </row>
@@ -2513,22 +2513,22 @@
         <v>17</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J17" s="7">
         <v>126</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="M17" s="5">
@@ -2568,31 +2568,31 @@
         <v>112</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AK17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
     </row>
@@ -2616,22 +2616,22 @@
         <v>16</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="J18" s="7">
         <v>230</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M18" s="5">
@@ -2671,31 +2671,31 @@
         <v>115</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -2719,22 +2719,22 @@
         <v>13</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="J19" s="7">
         <v>15</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M19" s="5">
@@ -2771,31 +2771,31 @@
         <v>100</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="AJ19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -2819,22 +2819,22 @@
         <v>16</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="J20" s="7">
         <v>93</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="M20" s="5">
@@ -2871,31 +2871,31 @@
         <v>1100</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -2919,22 +2919,22 @@
         <v>18</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J21" s="7">
         <v>42</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M21" s="5">
@@ -2971,31 +2971,31 @@
         <v>450</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3019,22 +3019,22 @@
         <v>12</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J22" s="7">
         <v>5</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M22" s="5">
@@ -3074,31 +3074,31 @@
         <v>125</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="AI22" s="1">
         <f t="shared" si="8"/>
         <v>-1</v>
       </c>
+      <c r="AI22" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
     </row>
@@ -3122,22 +3122,22 @@
         <v>13</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="J23" s="7">
         <v>13</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M23" s="5">
@@ -3174,31 +3174,31 @@
         <v>50</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AH23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AI23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2</v>
       </c>
       <c r="AJ23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="AK23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-3</v>
       </c>
     </row>
@@ -3222,22 +3222,22 @@
         <v>18</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J24" s="7">
         <v>11</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M24" s="5">
@@ -3274,31 +3274,31 @@
         <v>100</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
     </row>
@@ -3322,22 +3322,22 @@
         <v>16</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" ref="H25:H27" si="15">G25-(10+AG25)</f>
+        <f t="shared" ref="H25:H27" si="16">G25-(10+AG25)</f>
         <v>5</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" ref="I25" si="16">G25</f>
+        <f t="shared" ref="I25" si="17">G25</f>
         <v>16</v>
       </c>
       <c r="J25" s="7">
         <v>11</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" ref="K25" si="17">(_xlfn.CEILING.MATH(N25/2)+AH25)*M25</f>
+        <f t="shared" ref="K25" si="18">(_xlfn.CEILING.MATH(N25/2)+AH25)*M25</f>
         <v>10</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" ref="L25" si="18">J25-K25</f>
+        <f t="shared" ref="L25" si="19">J25-K25</f>
         <v>1</v>
       </c>
       <c r="M25" s="5">
@@ -3374,31 +3374,31 @@
         <v>100</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
     </row>
@@ -3422,22 +3422,22 @@
         <v>17</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J26" s="7">
         <v>39</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9</v>
       </c>
       <c r="M26" s="5">
@@ -3477,31 +3477,31 @@
         <v>139</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AH26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -3525,22 +3525,22 @@
         <v>20</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="J27" s="7">
         <v>97</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="M27" s="5">
@@ -3577,31 +3577,31 @@
         <v>2300</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -3625,22 +3625,22 @@
         <v>18</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" ref="H28:H29" si="19">G28-(10+AG28)</f>
+        <f t="shared" ref="H28:H29" si="20">G28-(10+AG28)</f>
         <v>6</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" ref="I28" si="20">G28</f>
+        <f t="shared" ref="I28" si="21">G28</f>
         <v>18</v>
       </c>
       <c r="J28" s="7">
         <v>97</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" ref="K28" si="21">(_xlfn.CEILING.MATH(N28/2)+AH28)*M28</f>
+        <f t="shared" ref="K28" si="22">(_xlfn.CEILING.MATH(N28/2)+AH28)*M28</f>
         <v>91</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" ref="L28" si="22">J28-K28</f>
+        <f t="shared" ref="L28" si="23">J28-K28</f>
         <v>6</v>
       </c>
       <c r="M28" s="5">
@@ -3677,31 +3677,31 @@
         <v>2300</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -3725,22 +3725,22 @@
         <v>25</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J29" s="7">
         <v>676</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>660</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="M29" s="5">
@@ -3780,2071 +3780,31 @@
         <v>149</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="I30" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="5">
-        <v>10</v>
-      </c>
-      <c r="P30" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>10</v>
-      </c>
-      <c r="R30" s="5">
-        <v>10</v>
-      </c>
-      <c r="S30" s="5">
-        <v>10</v>
-      </c>
-      <c r="T30" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE30" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="I31" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="5">
-        <v>10</v>
-      </c>
-      <c r="P31" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>10</v>
-      </c>
-      <c r="R31" s="5">
-        <v>10</v>
-      </c>
-      <c r="S31" s="5">
-        <v>10</v>
-      </c>
-      <c r="T31" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE31" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI31" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK31" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="I32" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="5">
-        <v>10</v>
-      </c>
-      <c r="P32" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>10</v>
-      </c>
-      <c r="R32" s="5">
-        <v>10</v>
-      </c>
-      <c r="S32" s="5">
-        <v>10</v>
-      </c>
-      <c r="T32" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE32" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI32" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I33" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="5">
-        <v>10</v>
-      </c>
-      <c r="P33" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>10</v>
-      </c>
-      <c r="R33" s="5">
-        <v>10</v>
-      </c>
-      <c r="S33" s="5">
-        <v>10</v>
-      </c>
-      <c r="T33" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE33" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI33" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK33" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I34" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="5">
-        <v>10</v>
-      </c>
-      <c r="P34" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>10</v>
-      </c>
-      <c r="R34" s="5">
-        <v>10</v>
-      </c>
-      <c r="S34" s="5">
-        <v>10</v>
-      </c>
-      <c r="T34" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE34" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK34" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="5">
-        <v>10</v>
-      </c>
-      <c r="P35" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>10</v>
-      </c>
-      <c r="R35" s="5">
-        <v>10</v>
-      </c>
-      <c r="S35" s="5">
-        <v>10</v>
-      </c>
-      <c r="T35" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE35" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK35" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I36" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="5">
-        <v>10</v>
-      </c>
-      <c r="P36" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>10</v>
-      </c>
-      <c r="R36" s="5">
-        <v>10</v>
-      </c>
-      <c r="S36" s="5">
-        <v>10</v>
-      </c>
-      <c r="T36" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE36" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI36" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I37" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="5">
-        <v>10</v>
-      </c>
-      <c r="P37" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>10</v>
-      </c>
-      <c r="R37" s="5">
-        <v>10</v>
-      </c>
-      <c r="S37" s="5">
-        <v>10</v>
-      </c>
-      <c r="T37" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE37" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF37" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH37" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI37" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK37" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I38" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="5">
-        <v>10</v>
-      </c>
-      <c r="P38" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>10</v>
-      </c>
-      <c r="R38" s="5">
-        <v>10</v>
-      </c>
-      <c r="S38" s="5">
-        <v>10</v>
-      </c>
-      <c r="T38" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE38" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF38" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG38" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH38" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI38" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK38" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I39" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <v>10</v>
-      </c>
-      <c r="P39" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>10</v>
-      </c>
-      <c r="R39" s="5">
-        <v>10</v>
-      </c>
-      <c r="S39" s="5">
-        <v>10</v>
-      </c>
-      <c r="T39" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE39" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI39" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK39" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I40" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="5">
-        <v>10</v>
-      </c>
-      <c r="P40" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>10</v>
-      </c>
-      <c r="R40" s="5">
-        <v>10</v>
-      </c>
-      <c r="S40" s="5">
-        <v>10</v>
-      </c>
-      <c r="T40" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE40" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG40" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI40" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I41" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="5">
-        <v>10</v>
-      </c>
-      <c r="P41" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>10</v>
-      </c>
-      <c r="R41" s="5">
-        <v>10</v>
-      </c>
-      <c r="S41" s="5">
-        <v>10</v>
-      </c>
-      <c r="T41" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE41" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF41" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH41" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI41" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK41" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I42" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="5">
-        <v>10</v>
-      </c>
-      <c r="P42" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>10</v>
-      </c>
-      <c r="R42" s="5">
-        <v>10</v>
-      </c>
-      <c r="S42" s="5">
-        <v>10</v>
-      </c>
-      <c r="T42" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE42" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH42" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI42" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I43" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="5">
-        <v>10</v>
-      </c>
-      <c r="P43" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>10</v>
-      </c>
-      <c r="R43" s="5">
-        <v>10</v>
-      </c>
-      <c r="S43" s="5">
-        <v>10</v>
-      </c>
-      <c r="T43" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE43" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF43" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH43" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI43" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK43" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I44" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="5">
-        <v>10</v>
-      </c>
-      <c r="P44" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>10</v>
-      </c>
-      <c r="R44" s="5">
-        <v>10</v>
-      </c>
-      <c r="S44" s="5">
-        <v>10</v>
-      </c>
-      <c r="T44" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE44" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF44" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH44" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI44" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK44" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I45" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="5">
-        <v>10</v>
-      </c>
-      <c r="P45" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>10</v>
-      </c>
-      <c r="R45" s="5">
-        <v>10</v>
-      </c>
-      <c r="S45" s="5">
-        <v>10</v>
-      </c>
-      <c r="T45" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE45" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF45" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH45" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI45" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK45" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I46" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="5">
-        <v>10</v>
-      </c>
-      <c r="P46" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>10</v>
-      </c>
-      <c r="R46" s="5">
-        <v>10</v>
-      </c>
-      <c r="S46" s="5">
-        <v>10</v>
-      </c>
-      <c r="T46" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE46" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI46" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK46" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I47" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="5">
-        <v>10</v>
-      </c>
-      <c r="P47" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="5">
-        <v>10</v>
-      </c>
-      <c r="R47" s="5">
-        <v>10</v>
-      </c>
-      <c r="S47" s="5">
-        <v>10</v>
-      </c>
-      <c r="T47" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE47" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF47" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG47" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI47" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK47" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I48" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="5">
-        <v>10</v>
-      </c>
-      <c r="P48" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>10</v>
-      </c>
-      <c r="R48" s="5">
-        <v>10</v>
-      </c>
-      <c r="S48" s="5">
-        <v>10</v>
-      </c>
-      <c r="T48" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE48" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI48" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I49" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="5">
-        <v>10</v>
-      </c>
-      <c r="P49" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q49" s="5">
-        <v>10</v>
-      </c>
-      <c r="R49" s="5">
-        <v>10</v>
-      </c>
-      <c r="S49" s="5">
-        <v>10</v>
-      </c>
-      <c r="T49" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE49" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF49" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG49" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH49" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI49" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK49" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I50" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="5">
-        <v>10</v>
-      </c>
-      <c r="P50" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="5">
-        <v>10</v>
-      </c>
-      <c r="R50" s="5">
-        <v>10</v>
-      </c>
-      <c r="S50" s="5">
-        <v>10</v>
-      </c>
-      <c r="T50" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE50" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF50" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG50" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH50" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI50" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ50" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK50" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I51" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="5">
-        <v>10</v>
-      </c>
-      <c r="P51" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q51" s="5">
-        <v>10</v>
-      </c>
-      <c r="R51" s="5">
-        <v>10</v>
-      </c>
-      <c r="S51" s="5">
-        <v>10</v>
-      </c>
-      <c r="T51" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE51" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF51" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG51" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH51" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI51" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK51" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I52" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="5">
-        <v>10</v>
-      </c>
-      <c r="P52" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="5">
-        <v>10</v>
-      </c>
-      <c r="R52" s="5">
-        <v>10</v>
-      </c>
-      <c r="S52" s="5">
-        <v>10</v>
-      </c>
-      <c r="T52" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE52" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF52" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG52" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH52" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI52" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK52" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I53" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="5">
-        <v>10</v>
-      </c>
-      <c r="P53" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q53" s="5">
-        <v>10</v>
-      </c>
-      <c r="R53" s="5">
-        <v>10</v>
-      </c>
-      <c r="S53" s="5">
-        <v>10</v>
-      </c>
-      <c r="T53" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE53" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF53" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG53" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH53" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI53" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK53" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I54" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="5">
-        <v>10</v>
-      </c>
-      <c r="P54" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q54" s="5">
-        <v>10</v>
-      </c>
-      <c r="R54" s="5">
-        <v>10</v>
-      </c>
-      <c r="S54" s="5">
-        <v>10</v>
-      </c>
-      <c r="T54" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE54" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF54" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG54" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH54" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI54" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK54" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I55" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="5">
-        <v>10</v>
-      </c>
-      <c r="P55" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q55" s="5">
-        <v>10</v>
-      </c>
-      <c r="R55" s="5">
-        <v>10</v>
-      </c>
-      <c r="S55" s="5">
-        <v>10</v>
-      </c>
-      <c r="T55" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE55" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF55" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG55" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH55" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI55" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ55" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK55" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I56" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="5">
-        <v>10</v>
-      </c>
-      <c r="P56" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q56" s="5">
-        <v>10</v>
-      </c>
-      <c r="R56" s="5">
-        <v>10</v>
-      </c>
-      <c r="S56" s="5">
-        <v>10</v>
-      </c>
-      <c r="T56" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE56" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF56" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG56" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH56" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI56" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK56" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I57" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="5">
-        <v>10</v>
-      </c>
-      <c r="P57" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="5">
-        <v>10</v>
-      </c>
-      <c r="R57" s="5">
-        <v>10</v>
-      </c>
-      <c r="S57" s="5">
-        <v>10</v>
-      </c>
-      <c r="T57" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE57" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF57" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG57" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH57" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI57" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK57" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I58" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="5">
-        <v>10</v>
-      </c>
-      <c r="P58" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q58" s="5">
-        <v>10</v>
-      </c>
-      <c r="R58" s="5">
-        <v>10</v>
-      </c>
-      <c r="S58" s="5">
-        <v>10</v>
-      </c>
-      <c r="T58" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE58" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF58" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG58" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH58" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI58" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK58" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I59" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="5">
-        <v>10</v>
-      </c>
-      <c r="P59" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q59" s="5">
-        <v>10</v>
-      </c>
-      <c r="R59" s="5">
-        <v>10</v>
-      </c>
-      <c r="S59" s="5">
-        <v>10</v>
-      </c>
-      <c r="T59" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE59" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF59" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG59" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH59" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI59" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ59" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK59" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I60" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="5">
-        <v>10</v>
-      </c>
-      <c r="P60" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q60" s="5">
-        <v>10</v>
-      </c>
-      <c r="R60" s="5">
-        <v>10</v>
-      </c>
-      <c r="S60" s="5">
-        <v>10</v>
-      </c>
-      <c r="T60" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE60" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF60" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG60" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH60" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI60" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK60" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I61" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="5">
-        <v>10</v>
-      </c>
-      <c r="P61" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="5">
-        <v>10</v>
-      </c>
-      <c r="R61" s="5">
-        <v>10</v>
-      </c>
-      <c r="S61" s="5">
-        <v>10</v>
-      </c>
-      <c r="T61" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE61" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF61" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG61" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH61" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI61" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK61" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I62" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="5">
-        <v>10</v>
-      </c>
-      <c r="P62" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="5">
-        <v>10</v>
-      </c>
-      <c r="R62" s="5">
-        <v>10</v>
-      </c>
-      <c r="S62" s="5">
-        <v>10</v>
-      </c>
-      <c r="T62" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE62" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF62" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG62" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH62" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI62" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK62" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="9:37" x14ac:dyDescent="0.25">
-      <c r="I63" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="5">
-        <v>10</v>
-      </c>
-      <c r="P63" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q63" s="5">
-        <v>10</v>
-      </c>
-      <c r="R63" s="5">
-        <v>10</v>
-      </c>
-      <c r="S63" s="5">
-        <v>10</v>
-      </c>
-      <c r="T63" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE63" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF63" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG63" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH63" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI63" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AK63" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>

--- a/beastiary.xlsx
+++ b/beastiary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cass\Documents\GitHub\DnD-battler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cass\Documents\Openshift\battle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="151">
   <si>
     <t>name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>heading_bonus</t>
   </si>
   <si>
-    <t>ability</t>
-  </si>
-  <si>
     <t>sc_ability</t>
   </si>
   <si>
@@ -144,12 +141,6 @@
     <t>armor_bonus</t>
   </si>
   <si>
-    <t>['claw',3,1,6]</t>
-  </si>
-  <si>
-    <t>['club',2,0,4]</t>
-  </si>
-  <si>
     <t>Light Armor</t>
   </si>
   <si>
@@ -213,12 +204,6 @@
     <t>leather and shield</t>
   </si>
   <si>
-    <t>['scimitar',4,2,6]</t>
-  </si>
-  <si>
-    <t>['scimitar',3,1,6]</t>
-  </si>
-  <si>
     <t>goblin boss</t>
   </si>
   <si>
@@ -228,9 +213,6 @@
     <t>hp_fudge</t>
   </si>
   <si>
-    <t>['scimitar',4,2,6],['scimitar',4,2,6]</t>
-  </si>
-  <si>
     <t>Add disadvantage to second weapon</t>
   </si>
   <si>
@@ -246,242 +228,263 @@
     <t>hide</t>
   </si>
   <si>
-    <t>['greatclub',6,4,8,8]</t>
-  </si>
-  <si>
     <t>half-ogre</t>
   </si>
   <si>
     <t>stated_ac</t>
   </si>
   <si>
+    <t>expected_hp</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>ogrillon</t>
+  </si>
+  <si>
+    <t>peasant</t>
+  </si>
+  <si>
+    <t>troll</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>regen</t>
+  </si>
+  <si>
+    <t>gnoll shield+spear</t>
+  </si>
+  <si>
+    <t>gnoll spear (2h)</t>
+  </si>
+  <si>
+    <t>gnoll pack lord</t>
+  </si>
+  <si>
+    <t>chain shirt</t>
+  </si>
+  <si>
+    <t>no rampage</t>
+  </si>
+  <si>
+    <t>cloud giant</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>fire giant</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>frost giant</t>
+  </si>
+  <si>
+    <t>patchwork</t>
+  </si>
+  <si>
+    <t>hill giant</t>
+  </si>
+  <si>
+    <t>stone giant</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>hide shied</t>
+  </si>
+  <si>
+    <t>armour_name</t>
+  </si>
+  <si>
+    <t>storm giant</t>
+  </si>
+  <si>
+    <t>no spellcasting, should be neutral</t>
+  </si>
+  <si>
+    <t>should be neutral</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>should be good. No spellcasting.</t>
+  </si>
+  <si>
+    <t>orc</t>
+  </si>
+  <si>
+    <t>orc war chief</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>orog</t>
+  </si>
+  <si>
+    <t>kobold</t>
+  </si>
+  <si>
+    <t>no pack tactics</t>
+  </si>
+  <si>
+    <t>No undead fortitude!</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>scraps</t>
+  </si>
+  <si>
+    <t>chain mail shield</t>
+  </si>
+  <si>
+    <t>hobgoblin shield+longsword</t>
+  </si>
+  <si>
+    <t>hobgoblin 2h longsword</t>
+  </si>
+  <si>
+    <t>chain mail</t>
+  </si>
+  <si>
+    <t>hobgoblin captain</t>
+  </si>
+  <si>
+    <t>half plate</t>
+  </si>
+  <si>
+    <t>martial advantage unconditionally on.</t>
+  </si>
+  <si>
+    <t>hobgoblin warlord  shield+longsword</t>
+  </si>
+  <si>
+    <t>hobgoblin warlord 2h longsword</t>
+  </si>
+  <si>
+    <t>plate shield</t>
+  </si>
+  <si>
+    <t>tarrasque</t>
+  </si>
+  <si>
+    <t>monstrosity</t>
+  </si>
+  <si>
+    <t>gargantuan</t>
+  </si>
+  <si>
+    <t>only multiattack and no resistances.</t>
+  </si>
+  <si>
+    <t>_attack_parameters</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>["claw",3,1,6]</t>
+  </si>
+  <si>
+    <t>["club",2,0,4]</t>
+  </si>
+  <si>
+    <t>["scimitar",3,1,6]</t>
+  </si>
+  <si>
+    <t>["scimitar",4,2,6]</t>
+  </si>
+  <si>
+    <t>["scimitar",4,2,6],["scimitar",4,2,6]</t>
+  </si>
+  <si>
+    <t>["greatclub",6,4,8,8]</t>
+  </si>
+  <si>
+    <t>["battleaxe",5,3,8,8]</t>
+  </si>
+  <si>
+    <t>["bite",7,4,6],["claw",7,4,6,6],["claw",7,4,6,6]</t>
+  </si>
+  <si>
+    <t>["spear",4,2,6]</t>
+  </si>
+  <si>
+    <t>["spear",4,2,8]</t>
+  </si>
+  <si>
+    <t>["glaive",5,3,10],["glaive",5,3,10]</t>
+  </si>
+  <si>
+    <t>["morningstar",12,8,8,8],["morningstar",12,8,8,8]</t>
+  </si>
+  <si>
+    <t>["greatsword",11,7,6,6,6,6,6,6],["greatsword",11,7,6,6,6,6,6,6]</t>
+  </si>
+  <si>
+    <t>["greatsword",9,6,12,12,12],["greatsword",9,6,12,12,12]</t>
+  </si>
+  <si>
+    <t>["greatclub",8,5,3,3,3],["greatclub",8,5,3,3,3]</t>
+  </si>
+  <si>
+    <t>["greatclub",9,6,8,8,8],["greatclub",9,6,8,8,8]</t>
+  </si>
+  <si>
+    <t>["greatsword",14,9,6,6,6,6,6,6],["greatsword",14,9,6,6,6,6,6,6]</t>
+  </si>
+  <si>
+    <t>["greataxe",5,3,12]</t>
+  </si>
+  <si>
+    <t>["greataxe",6,4,12,8],["greataxe",6,4,12,8]</t>
+  </si>
+  <si>
+    <t>["greataxe",6,4,12]</t>
+  </si>
+  <si>
+    <t>["dagger",4,2,4]</t>
+  </si>
+  <si>
+    <t>["shortsword",4,2,6]</t>
+  </si>
+  <si>
+    <t>["longsword",3,1,8]</t>
+  </si>
+  <si>
+    <t>["longsword",3,1,10]</t>
+  </si>
+  <si>
+    <t>["greatsword",4,2,6,6],["greatsword",4,2,6,6],["martial advantage",4,2,6,6,6]</t>
+  </si>
+  <si>
+    <t>["longsword",9,3,8],["longsword",9,3,8],["longsword",9,3,8],["martial advantage",9,3,6,6,6,6]</t>
+  </si>
+  <si>
+    <t>["longsword",9,3,10],["longsword",9,3,10],["longsword",9,3,10],["martial advantage",9,3,6,6,6,6]</t>
+  </si>
+  <si>
+    <t>["bite",19,10,12,12,12,12],["claw",19,10,8,8,8,8],["claw",19,10,8,8,8,8],["horns",19,10,10,10,10,10],["tail",19,10,6,6,6,6]</t>
+  </si>
+  <si>
     <t>stated_hp</t>
-  </si>
-  <si>
-    <t>expected_hp</t>
-  </si>
-  <si>
-    <t>['battleaxe',5,3,8,8]</t>
-  </si>
-  <si>
-    <t>alt</t>
-  </si>
-  <si>
-    <t>ogrillon</t>
-  </si>
-  <si>
-    <t>peasant</t>
-  </si>
-  <si>
-    <t>troll</t>
-  </si>
-  <si>
-    <t>natural</t>
-  </si>
-  <si>
-    <t>['bite',7,4,6],['claw',7,4,6,6],['claw',7,4,6,6]</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>['spear',4,2,6]</t>
-  </si>
-  <si>
-    <t>gnoll shield+spear</t>
-  </si>
-  <si>
-    <t>gnoll spear (2h)</t>
-  </si>
-  <si>
-    <t>['spear',4,2,8]</t>
-  </si>
-  <si>
-    <t>gnoll pack lord</t>
-  </si>
-  <si>
-    <t>chain shirt</t>
-  </si>
-  <si>
-    <t>['glaive',5,3,10],['glaive',5,3,10]</t>
-  </si>
-  <si>
-    <t>no rampage</t>
-  </si>
-  <si>
-    <t>cloud giant</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>['morningstar',12,8,8,8],['morningstar',12,8,8,8]</t>
-  </si>
-  <si>
-    <t>fire giant</t>
-  </si>
-  <si>
-    <t>plate</t>
-  </si>
-  <si>
-    <t>['greatsword',11,7,6,6,6,6,6,6],['greatsword',11,7,6,6,6,6,6,6]</t>
-  </si>
-  <si>
-    <t>frost giant</t>
-  </si>
-  <si>
-    <t>patchwork</t>
-  </si>
-  <si>
-    <t>['greatsword',9,6,12,12,12],['greatsword',9,6,12,12,12]</t>
-  </si>
-  <si>
-    <t>hill giant</t>
-  </si>
-  <si>
-    <t>['greatclub',8,5,3,3,3],['greatclub',8,5,3,3,3]</t>
-  </si>
-  <si>
-    <t>stone giant</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>hide shied</t>
-  </si>
-  <si>
-    <t>armour_name</t>
-  </si>
-  <si>
-    <t>['greatclub',9,6,8,8,8],['greatclub',9,6,8,8,8]</t>
-  </si>
-  <si>
-    <t>storm giant</t>
-  </si>
-  <si>
-    <t>no spellcasting, should be neutral</t>
-  </si>
-  <si>
-    <t>should be neutral</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>['greatsword',14,9,6,6,6,6,6,6],['greatsword',14,9,6,6,6,6,6,6]</t>
-  </si>
-  <si>
-    <t>should be good. No spellcasting.</t>
-  </si>
-  <si>
-    <t>orc</t>
-  </si>
-  <si>
-    <t>['greataxe',5,3,12]</t>
-  </si>
-  <si>
-    <t>['greataxe',6,4,12,8],['greataxe',6,4,12,8]</t>
-  </si>
-  <si>
-    <t>orc war chief</t>
-  </si>
-  <si>
-    <t>chain</t>
-  </si>
-  <si>
-    <t>orog</t>
-  </si>
-  <si>
-    <t>['greataxe',6,4,12]</t>
-  </si>
-  <si>
-    <t>kobold</t>
-  </si>
-  <si>
-    <t>['dagger',4,2,4]</t>
-  </si>
-  <si>
-    <t>no pack tactics</t>
-  </si>
-  <si>
-    <t>No undead fortitude!</t>
-  </si>
-  <si>
-    <t>skeleton</t>
-  </si>
-  <si>
-    <t>scraps</t>
-  </si>
-  <si>
-    <t>['shortsword',4,2,6]</t>
-  </si>
-  <si>
-    <t>chain mail shield</t>
-  </si>
-  <si>
-    <t>['longsword',3,1,8]</t>
-  </si>
-  <si>
-    <t>hobgoblin shield+longsword</t>
-  </si>
-  <si>
-    <t>hobgoblin 2h longsword</t>
-  </si>
-  <si>
-    <t>chain mail</t>
-  </si>
-  <si>
-    <t>['longsword',3,1,10]</t>
-  </si>
-  <si>
-    <t>hobgoblin captain</t>
-  </si>
-  <si>
-    <t>half plate</t>
-  </si>
-  <si>
-    <t>['greatsword',4,2,6,6],['greatsword',4,2,6,6],['martial advantage',4,2,6,6,6]</t>
-  </si>
-  <si>
-    <t>martial advantage unconditionally on.</t>
-  </si>
-  <si>
-    <t>['longsword',9,3,8],['longsword',9,3,8],['longsword',9,3,8],['martial advantage',9,3,6,6,6,6]</t>
-  </si>
-  <si>
-    <t>hobgoblin warlord  shield+longsword</t>
-  </si>
-  <si>
-    <t>hobgoblin warlord 2h longsword</t>
-  </si>
-  <si>
-    <t>plate shield</t>
-  </si>
-  <si>
-    <t>['longsword',9,3,10],['longsword',9,3,10],['longsword',9,3,10],['martial advantage',9,3,6,6,6,6]</t>
-  </si>
-  <si>
-    <t>tarrasque</t>
-  </si>
-  <si>
-    <t>monstrosity</t>
-  </si>
-  <si>
-    <t>gargantuan</t>
-  </si>
-  <si>
-    <t>['bite',19,10,12,12,12,12],['claw',19,10,8,8,8,8],['claw',19,10,8,8,8,8],['horns',19,10,10,10,10,10],['tail',19,10,6,6,6,6]</t>
-  </si>
-  <si>
-    <t>only multiattack and no resistances.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +501,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -538,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -550,6 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL29"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,150 +854,155 @@
     <col min="8" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="9.140625" style="6"/>
     <col min="10" max="10" width="9.140625" style="7"/>
-    <col min="11" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="9.140625" style="4"/>
-    <col min="20" max="20" width="9.140625" style="4"/>
-    <col min="31" max="37" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="11"/>
+    <col min="12" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="4"/>
+    <col min="21" max="21" width="9.140625" style="4"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="33" max="39" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G2" s="3">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <f>G2-(10+AG2)</f>
+        <f>G2-(10+AI2)</f>
         <v>0</v>
       </c>
       <c r="I2" s="6">
@@ -996,103 +1012,111 @@
       <c r="J2" s="7">
         <v>21</v>
       </c>
-      <c r="K2" s="2">
-        <f>(_xlfn.CEILING.MATH(N2/2+1)+AH2)*M2</f>
+      <c r="K2" s="11">
+        <f>J2</f>
+        <v>21</v>
+      </c>
+      <c r="L2" s="2">
+        <f>(_xlfn.CEILING.MATH(O2/2+1)+AJ2)*N2</f>
         <v>24</v>
       </c>
-      <c r="L2" s="2">
-        <f>J2-K2</f>
+      <c r="M2" s="2">
+        <f>J2-L2</f>
         <v>-3</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>3</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>8</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>13</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>6</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>6</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="4">
         <v>5</v>
       </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2">
+      <c r="V2" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="1" t="str">
+        <f>CONCATENATE("[",V2,"]")</f>
+        <v>[["claw",3,1,6]]</v>
+      </c>
+      <c r="X2">
         <v>0.25</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>50</v>
       </c>
-      <c r="AC2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE2" s="1">
-        <f>AG2</f>
+      <c r="AE2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG2" s="1">
+        <f>AI2</f>
         <v>-2</v>
       </c>
-      <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AK2" si="0">_xlfn.FLOOR.MATH((O2-10)/2)</f>
-        <v>1</v>
-      </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
+        <f t="shared" ref="AH2:AM2" si="0">_xlfn.FLOOR.MATH((P2-10)/2)</f>
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AJ2" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AK2" s="1">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AL2" s="1">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AM2" s="1">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G3" s="3">
         <v>10</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H10" si="1">G3-(10+AG3)</f>
+        <f t="shared" ref="H3:H10" si="1">G3-(10+AI3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="6">
@@ -1102,23 +1126,24 @@
       <c r="J3" s="7">
         <v>4</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K29" si="3">(_xlfn.CEILING.MATH(N3/2)+AH3)*M3</f>
+      <c r="K3" s="11">
+        <f t="shared" ref="K3:K29" si="3">J3</f>
         <v>4</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L29" si="4">J3-K3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
+        <f t="shared" ref="L3:L29" si="4">(_xlfn.CEILING.MATH(O3/2)+AJ3)*N3</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M29" si="5">J3-L3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
         <v>8</v>
       </c>
-      <c r="O3" s="5">
-        <v>10</v>
-      </c>
       <c r="P3" s="5">
         <v>10</v>
       </c>
@@ -1131,62 +1156,69 @@
       <c r="S3" s="5">
         <v>10</v>
       </c>
-      <c r="T3" s="4">
-        <v>10</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>10</v>
-      </c>
-      <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE29" si="5">AG3</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
-        <f t="shared" ref="AF3:AF29" si="6">_xlfn.FLOOR.MATH((O3-10)/2)</f>
-        <v>0</v>
+      <c r="T3" s="5">
+        <v>10</v>
+      </c>
+      <c r="U3" s="4">
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>123</v>
+      </c>
+      <c r="W3" s="1" t="str">
+        <f t="shared" ref="W3:W29" si="6">CONCATENATE("[",V3,"]")</f>
+        <v>[["club",2,0,4]]</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AG29" si="7">_xlfn.FLOOR.MATH((P3-10)/2)</f>
+        <f t="shared" ref="AG3:AG29" si="7">AI3</f>
         <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" ref="AH3:AH29" si="8">_xlfn.FLOOR.MATH((Q3-10)/2)</f>
+        <f t="shared" ref="AH3:AH29" si="8">_xlfn.FLOOR.MATH((P3-10)/2)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" ref="AI3:AI29" si="9">_xlfn.FLOOR.MATH((R3-10)/2)</f>
+        <f t="shared" ref="AI3:AI29" si="9">_xlfn.FLOOR.MATH((Q3-10)/2)</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <f t="shared" ref="AJ3:AJ29" si="10">_xlfn.FLOOR.MATH((S3-10)/2)</f>
+        <f t="shared" ref="AJ3:AJ29" si="10">_xlfn.FLOOR.MATH((R3-10)/2)</f>
         <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <f t="shared" ref="AK3:AK29" si="11">_xlfn.FLOOR.MATH((T3-10)/2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AK3:AK29" si="11">_xlfn.FLOOR.MATH((S3-10)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <f t="shared" ref="AL3:AL29" si="12">_xlfn.FLOOR.MATH((T3-10)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1">
+        <f t="shared" ref="AM3:AM29" si="13">_xlfn.FLOOR.MATH((U3-10)/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G4" s="5">
         <v>12</v>
@@ -1202,54 +1234,54 @@
       <c r="J4" s="7">
         <v>9</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="11">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>2</v>
-      </c>
-      <c r="N4" s="4">
         <v>8</v>
       </c>
-      <c r="O4" s="5">
+      <c r="M4" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>8</v>
+      </c>
+      <c r="P4" s="5">
         <v>11</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>12</v>
       </c>
-      <c r="Q4" s="5">
-        <v>10</v>
-      </c>
       <c r="R4" s="5">
         <v>10</v>
       </c>
       <c r="S4" s="5">
+        <v>10</v>
+      </c>
+      <c r="T4" s="5">
         <v>11</v>
       </c>
-      <c r="T4" s="4">
-        <v>10</v>
-      </c>
-      <c r="U4" t="s">
-        <v>63</v>
-      </c>
-      <c r="V4">
+      <c r="U4" s="4">
+        <v>10</v>
+      </c>
+      <c r="V4" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["scimitar",3,1,6]]</v>
+      </c>
+      <c r="X4">
         <v>0.125</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>25</v>
-      </c>
-      <c r="AE4" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF4" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="AG4" s="1">
         <f t="shared" si="7"/>
@@ -1261,7 +1293,7 @@
       </c>
       <c r="AI4" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" s="1">
         <f t="shared" si="10"/>
@@ -1271,22 +1303,30 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL4" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G5" s="5">
         <v>15</v>
@@ -1302,54 +1342,54 @@
       <c r="J5" s="7">
         <v>7</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M5" s="5">
-        <v>2</v>
-      </c>
-      <c r="N5" s="4">
         <v>6</v>
       </c>
-      <c r="O5" s="5">
+      <c r="M5" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>6</v>
+      </c>
+      <c r="P5" s="5">
         <v>8</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>14</v>
       </c>
-      <c r="Q5" s="5">
-        <v>10</v>
-      </c>
       <c r="R5" s="5">
         <v>10</v>
       </c>
       <c r="S5" s="5">
+        <v>10</v>
+      </c>
+      <c r="T5" s="5">
         <v>8</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <v>8</v>
       </c>
-      <c r="U5" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5">
+      <c r="V5" t="s">
+        <v>125</v>
+      </c>
+      <c r="W5" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["scimitar",4,2,6]]</v>
+      </c>
+      <c r="X5">
         <v>0.25</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>50</v>
-      </c>
-      <c r="AE5" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AF5" s="1">
-        <f t="shared" si="6"/>
-        <v>-1</v>
       </c>
       <c r="AG5" s="1">
         <f t="shared" si="7"/>
@@ -1357,36 +1397,44 @@
       </c>
       <c r="AH5" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ5" s="1">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="G6" s="5">
         <v>17</v>
@@ -1402,57 +1450,57 @@
       <c r="J6" s="9">
         <v>21</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="11">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>6</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>6</v>
       </c>
-      <c r="O6" s="5">
-        <v>10</v>
-      </c>
       <c r="P6" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="5">
         <v>14</v>
       </c>
-      <c r="Q6" s="5">
-        <v>10</v>
-      </c>
       <c r="R6" s="5">
         <v>10</v>
       </c>
       <c r="S6" s="5">
+        <v>10</v>
+      </c>
+      <c r="T6" s="5">
         <v>8</v>
       </c>
-      <c r="T6" s="4">
-        <v>10</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
+      <c r="U6" s="4">
+        <v>10</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="W6" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["scimitar",4,2,6],["scimitar",4,2,6]]</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
         <v>200</v>
       </c>
-      <c r="AC6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE6" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AF6" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="AE6" t="s">
+        <v>62</v>
       </c>
       <c r="AG6" s="1">
         <f t="shared" si="7"/>
@@ -1464,32 +1512,40 @@
       </c>
       <c r="AI6" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ6" s="1">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL6" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="AM6" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G7" s="5">
         <v>11</v>
@@ -1505,54 +1561,54 @@
       <c r="J7" s="7">
         <v>59</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="11">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>7</v>
       </c>
-      <c r="N7" s="4">
-        <v>10</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
+        <v>10</v>
+      </c>
+      <c r="P7" s="5">
         <v>19</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>8</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>16</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <v>5</v>
       </c>
-      <c r="S7" s="5">
+      <c r="T7" s="5">
         <v>7</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <v>7</v>
       </c>
-      <c r="U7" t="s">
-        <v>73</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
+      <c r="V7" t="s">
+        <v>127</v>
+      </c>
+      <c r="W7" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["greatclub",6,4,8,8]]</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
         <v>450</v>
-      </c>
-      <c r="AE7" s="1">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="AF7" s="1">
-        <f t="shared" si="6"/>
-        <v>4</v>
       </c>
       <c r="AG7" s="1">
         <f t="shared" si="7"/>
@@ -1560,39 +1616,47 @@
       </c>
       <c r="AH7" s="1">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI7" s="1">
         <f t="shared" si="9"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ7" s="1">
         <f t="shared" si="10"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AK7" s="1">
         <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+      <c r="AL7" s="1">
+        <f t="shared" si="12"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM7" s="1">
+        <f t="shared" si="13"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G8" s="5">
         <v>12</v>
@@ -1608,54 +1672,54 @@
       <c r="J8" s="7">
         <v>30</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="11">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M8" s="5">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N8" s="5">
         <v>4</v>
       </c>
-      <c r="N8" s="4">
-        <v>10</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
+        <v>10</v>
+      </c>
+      <c r="P8" s="5">
         <v>17</v>
       </c>
-      <c r="P8" s="5">
-        <v>10</v>
-      </c>
       <c r="Q8" s="5">
+        <v>10</v>
+      </c>
+      <c r="R8" s="5">
         <v>14</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>7</v>
       </c>
-      <c r="S8" s="5">
+      <c r="T8" s="5">
         <v>9</v>
       </c>
-      <c r="T8" s="4">
-        <v>10</v>
-      </c>
-      <c r="U8" t="s">
-        <v>78</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
+      <c r="U8" s="4">
+        <v>10</v>
+      </c>
+      <c r="V8" t="s">
+        <v>128</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["battleaxe",5,3,8,8]]</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
         <v>200</v>
-      </c>
-      <c r="AE8" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
       </c>
       <c r="AG8" s="1">
         <f t="shared" si="7"/>
@@ -1663,36 +1727,44 @@
       </c>
       <c r="AH8" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" si="9"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AK8" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+      <c r="AL8" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="AM8" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G9" s="3">
         <v>15</v>
@@ -1708,57 +1780,57 @@
       <c r="J9" s="7">
         <v>84</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="11">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>8</v>
       </c>
-      <c r="N9" s="4">
-        <v>10</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
+        <v>10</v>
+      </c>
+      <c r="P9" s="5">
         <v>18</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>13</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>20</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>7</v>
       </c>
-      <c r="S9" s="5">
+      <c r="T9" s="5">
         <v>9</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <v>7</v>
       </c>
-      <c r="U9" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9">
+      <c r="V9" t="s">
+        <v>129</v>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["bite",7,4,6],["claw",7,4,6,6],["claw",7,4,6,6]]</v>
+      </c>
+      <c r="X9">
         <v>5</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>1800</v>
       </c>
-      <c r="X9">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF9" s="1">
-        <f t="shared" si="6"/>
-        <v>4</v>
+      <c r="Z9">
+        <v>10</v>
       </c>
       <c r="AG9" s="1">
         <f t="shared" si="7"/>
@@ -1766,36 +1838,44 @@
       </c>
       <c r="AH9" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI9" s="1">
         <f t="shared" si="9"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="1">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AK9" s="1">
         <f t="shared" si="11"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL9" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="AM9" s="1">
+        <f t="shared" si="13"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G10" s="5">
         <v>15</v>
@@ -1811,57 +1891,57 @@
       <c r="J10" s="7">
         <v>22</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="11">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M10" s="5">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N10" s="5">
         <v>5</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>8</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>14</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>12</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>11</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <v>6</v>
       </c>
-      <c r="S10" s="5">
-        <v>10</v>
-      </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
+        <v>10</v>
+      </c>
+      <c r="U10" s="4">
         <v>7</v>
       </c>
-      <c r="U10" t="s">
-        <v>86</v>
-      </c>
-      <c r="V10">
+      <c r="V10" t="s">
+        <v>130</v>
+      </c>
+      <c r="W10" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["spear",4,2,6]]</v>
+      </c>
+      <c r="X10">
         <v>0.5</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>100</v>
       </c>
-      <c r="AC10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE10" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF10" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+      <c r="AE10" t="s">
+        <v>80</v>
       </c>
       <c r="AG10" s="1">
         <f t="shared" si="7"/>
@@ -1869,11 +1949,11 @@
       </c>
       <c r="AH10" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" si="9"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="1">
         <f t="shared" si="10"/>
@@ -1883,88 +1963,96 @@
         <f t="shared" si="11"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL10" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <f t="shared" si="13"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G11" s="5">
         <v>13</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H11:H24" si="12">G11-(10+AG11)</f>
+        <f t="shared" ref="H11:H24" si="14">G11-(10+AI11)</f>
         <v>2</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" ref="I11" si="13">G11</f>
+        <f t="shared" ref="I11" si="15">G11</f>
         <v>13</v>
       </c>
       <c r="J11" s="7">
         <v>23</v>
       </c>
-      <c r="K11" s="2">
-        <f t="shared" ref="K11" si="14">(_xlfn.CEILING.MATH(N11/2)+AH11)*M11</f>
+      <c r="K11" s="11">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ref="L11" si="16">(_xlfn.CEILING.MATH(O11/2)+AJ11)*N11</f>
         <v>20</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" ref="L11" si="15">J11-K11</f>
+      <c r="M11" s="2">
+        <f t="shared" ref="M11" si="17">J11-L11</f>
         <v>3</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>5</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>8</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>14</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>12</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>11</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <v>6</v>
       </c>
-      <c r="S11" s="5">
-        <v>10</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="T11" s="5">
+        <v>10</v>
+      </c>
+      <c r="U11" s="4">
         <v>7</v>
       </c>
-      <c r="U11" t="s">
-        <v>89</v>
-      </c>
-      <c r="V11">
+      <c r="V11" t="s">
+        <v>131</v>
+      </c>
+      <c r="W11" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["spear",4,2,8]]</v>
+      </c>
+      <c r="X11">
         <v>0.5</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>100</v>
       </c>
-      <c r="AC11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE11" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF11" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+      <c r="AE11" t="s">
+        <v>80</v>
       </c>
       <c r="AG11" s="1">
         <f t="shared" si="7"/>
@@ -1972,11 +2060,11 @@
       </c>
       <c r="AH11" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="9"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ11" s="1">
         <f t="shared" si="10"/>
@@ -1986,28 +2074,36 @@
         <f t="shared" si="11"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL11" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1">
+        <f t="shared" si="13"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G12" s="5">
         <v>15</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="I12" s="6">
@@ -2017,57 +2113,57 @@
       <c r="J12" s="7">
         <v>49</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="11">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>9</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>8</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>16</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>14</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>13</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>8</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <v>11</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="4">
         <v>9</v>
       </c>
-      <c r="U12" t="s">
-        <v>92</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
+      <c r="V12" t="s">
+        <v>132</v>
+      </c>
+      <c r="W12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["glaive",5,3,10],["glaive",5,3,10]]</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
         <v>450</v>
       </c>
-      <c r="AC12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE12" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AF12" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
+      <c r="AE12" t="s">
+        <v>80</v>
       </c>
       <c r="AG12" s="1">
         <f t="shared" si="7"/>
@@ -2075,42 +2171,50 @@
       </c>
       <c r="AH12" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI12" s="1">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AJ12" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" s="1">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G13" s="5">
         <v>14</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="I13" s="6">
@@ -2120,57 +2224,57 @@
       <c r="J13" s="7">
         <v>200</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="11">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>16</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>12</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>27</v>
       </c>
-      <c r="P13" s="5">
-        <v>10</v>
-      </c>
       <c r="Q13" s="5">
+        <v>10</v>
+      </c>
+      <c r="R13" s="5">
         <v>22</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S13" s="5">
         <v>12</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <v>16</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <v>16</v>
       </c>
-      <c r="U13" t="s">
-        <v>96</v>
-      </c>
-      <c r="V13">
+      <c r="V13" t="s">
+        <v>133</v>
+      </c>
+      <c r="W13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["morningstar",12,8,8,8],["morningstar",12,8,8,8]]</v>
+      </c>
+      <c r="X13">
         <v>9</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>5000</v>
       </c>
-      <c r="AC13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE13" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="1">
-        <f t="shared" si="6"/>
-        <v>8</v>
+      <c r="AE13" t="s">
+        <v>93</v>
       </c>
       <c r="AG13" s="1">
         <f t="shared" si="7"/>
@@ -2178,42 +2282,50 @@
       </c>
       <c r="AH13" s="1">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI13" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK13" s="1">
         <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AL13" s="1">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM13" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G14" s="5">
         <v>18</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="I14" s="6">
@@ -2223,54 +2335,54 @@
       <c r="J14" s="7">
         <v>162</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="11">
         <f t="shared" si="3"/>
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>13</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>12</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>25</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>9</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
         <v>23</v>
       </c>
-      <c r="R14" s="5">
-        <v>10</v>
-      </c>
       <c r="S14" s="5">
+        <v>10</v>
+      </c>
+      <c r="T14" s="5">
         <v>14</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <v>13</v>
       </c>
-      <c r="U14" t="s">
-        <v>99</v>
-      </c>
-      <c r="V14">
+      <c r="V14" t="s">
+        <v>134</v>
+      </c>
+      <c r="W14" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["greatsword",11,7,6,6,6,6,6,6],["greatsword",11,7,6,6,6,6,6,6]]</v>
+      </c>
+      <c r="X14">
         <v>9</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>5000</v>
-      </c>
-      <c r="AE14" s="1">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="AF14" s="1">
-        <f t="shared" si="6"/>
-        <v>7</v>
       </c>
       <c r="AG14" s="1">
         <f t="shared" si="7"/>
@@ -2278,42 +2390,50 @@
       </c>
       <c r="AH14" s="1">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI14" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ14" s="1">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK14" s="1">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AM14" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="G15" s="5">
         <v>15</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="I15" s="6">
@@ -2323,54 +2443,54 @@
       <c r="J15" s="7">
         <v>138</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="11">
         <f t="shared" si="3"/>
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>12</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>12</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>23</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>9</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>21</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <v>9</v>
       </c>
-      <c r="S15" s="5">
-        <v>10</v>
-      </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
+        <v>10</v>
+      </c>
+      <c r="U15" s="4">
         <v>12</v>
       </c>
-      <c r="U15" t="s">
-        <v>102</v>
-      </c>
-      <c r="V15">
+      <c r="V15" t="s">
+        <v>135</v>
+      </c>
+      <c r="W15" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["greatsword",9,6,12,12,12],["greatsword",9,6,12,12,12]]</v>
+      </c>
+      <c r="X15">
         <v>8</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>3900</v>
-      </c>
-      <c r="AE15" s="1">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="AF15" s="1">
-        <f t="shared" si="6"/>
-        <v>6</v>
       </c>
       <c r="AG15" s="1">
         <f t="shared" si="7"/>
@@ -2378,7 +2498,7 @@
       </c>
       <c r="AH15" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="9"/>
@@ -2386,34 +2506,42 @@
       </c>
       <c r="AJ15" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK15" s="1">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="AL15" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G16" s="5">
         <v>13</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="I16" s="6">
@@ -2423,54 +2551,54 @@
       <c r="J16" s="7">
         <v>105</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="11">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="M16" s="5">
-        <v>10</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
+        <v>10</v>
+      </c>
+      <c r="O16" s="4">
         <v>12</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>21</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>8</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="5">
         <v>19</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <v>5</v>
       </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <v>9</v>
       </c>
-      <c r="T16" s="4">
+      <c r="U16" s="4">
         <v>6</v>
       </c>
-      <c r="U16" t="s">
-        <v>104</v>
-      </c>
-      <c r="V16">
+      <c r="V16" t="s">
+        <v>136</v>
+      </c>
+      <c r="W16" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["greatclub",8,5,3,3,3],["greatclub",8,5,3,3,3]]</v>
+      </c>
+      <c r="X16">
         <v>5</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>1800</v>
-      </c>
-      <c r="AE16" s="1">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="AF16" s="1">
-        <f t="shared" si="6"/>
-        <v>5</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="7"/>
@@ -2478,42 +2606,50 @@
       </c>
       <c r="AH16" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI16" s="1">
         <f t="shared" si="9"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ16" s="1">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AK16" s="1">
         <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+      <c r="AL16" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="AM16" s="1">
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G17" s="5">
         <v>17</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I17" s="6">
@@ -2523,57 +2659,57 @@
       <c r="J17" s="7">
         <v>126</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="11">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>11</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>12</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>23</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>15</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <v>20</v>
       </c>
-      <c r="R17" s="5">
-        <v>10</v>
-      </c>
       <c r="S17" s="5">
+        <v>10</v>
+      </c>
+      <c r="T17" s="5">
         <v>12</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <v>9</v>
       </c>
-      <c r="U17" t="s">
-        <v>109</v>
-      </c>
-      <c r="V17">
+      <c r="V17" t="s">
+        <v>137</v>
+      </c>
+      <c r="W17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["greatclub",9,6,8,8,8],["greatclub",9,6,8,8,8]]</v>
+      </c>
+      <c r="X17">
         <v>7</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>2900</v>
       </c>
-      <c r="AC17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE17" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AF17" s="1">
-        <f t="shared" si="6"/>
-        <v>6</v>
+      <c r="AE17" t="s">
+        <v>94</v>
       </c>
       <c r="AG17" s="1">
         <f t="shared" si="7"/>
@@ -2581,42 +2717,50 @@
       </c>
       <c r="AH17" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ17" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK17" s="1">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AM17" s="1">
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="G18" s="5">
         <v>16</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="I18" s="6">
@@ -2626,57 +2770,57 @@
       <c r="J18" s="7">
         <v>230</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="11">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="M18" s="5">
+        <v>220</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="N18" s="5">
         <v>20</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>12</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>29</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <v>14</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="R18" s="5">
         <v>20</v>
       </c>
-      <c r="R18" s="5">
+      <c r="S18" s="5">
         <v>16</v>
       </c>
-      <c r="S18" s="5">
+      <c r="T18" s="5">
         <v>18</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <v>18</v>
       </c>
-      <c r="U18" t="s">
-        <v>114</v>
-      </c>
-      <c r="V18">
+      <c r="V18" t="s">
+        <v>138</v>
+      </c>
+      <c r="W18" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["greatsword",14,9,6,6,6,6,6,6],["greatsword",14,9,6,6,6,6,6,6]]</v>
+      </c>
+      <c r="X18">
         <v>13</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>10000</v>
       </c>
-      <c r="AC18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE18" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AF18" s="1">
-        <f t="shared" si="6"/>
-        <v>9</v>
+      <c r="AE18" t="s">
+        <v>96</v>
       </c>
       <c r="AG18" s="1">
         <f t="shared" si="7"/>
@@ -2684,42 +2828,50 @@
       </c>
       <c r="AH18" s="1">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI18" s="1">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ18" s="1">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK18" s="1">
         <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AL18" s="1">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM18" s="1">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G19" s="5">
         <v>13</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="I19" s="6">
@@ -2729,54 +2881,54 @@
       <c r="J19" s="7">
         <v>15</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="11">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="5">
-        <v>2</v>
-      </c>
-      <c r="N19" s="4">
+        <v>14</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="5">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4">
         <v>8</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>16</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <v>12</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="R19" s="5">
         <v>16</v>
       </c>
-      <c r="R19" s="5">
+      <c r="S19" s="5">
         <v>7</v>
       </c>
-      <c r="S19" s="5">
+      <c r="T19" s="5">
         <v>11</v>
       </c>
-      <c r="T19" s="4">
-        <v>10</v>
-      </c>
-      <c r="U19" t="s">
-        <v>117</v>
-      </c>
-      <c r="V19">
+      <c r="U19" s="4">
+        <v>10</v>
+      </c>
+      <c r="V19" t="s">
+        <v>139</v>
+      </c>
+      <c r="W19" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["greataxe",5,3,12]]</v>
+      </c>
+      <c r="X19">
         <v>0.5</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>100</v>
-      </c>
-      <c r="AE19" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF19" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
       </c>
       <c r="AG19" s="1">
         <f t="shared" si="7"/>
@@ -2788,38 +2940,46 @@
       </c>
       <c r="AI19" s="1">
         <f t="shared" si="9"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK19" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+      <c r="AL19" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="G20" s="5">
         <v>16</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I20" s="6">
@@ -2829,54 +2989,54 @@
       <c r="J20" s="7">
         <v>93</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="11">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <v>11</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>8</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <v>18</v>
       </c>
-      <c r="P20" s="5">
+      <c r="Q20" s="5">
         <v>12</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="R20" s="5">
         <v>18</v>
-      </c>
-      <c r="R20" s="5">
-        <v>11</v>
       </c>
       <c r="S20" s="5">
         <v>11</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
+        <v>11</v>
+      </c>
+      <c r="U20" s="4">
         <v>16</v>
       </c>
-      <c r="U20" t="s">
-        <v>118</v>
-      </c>
-      <c r="V20">
+      <c r="V20" t="s">
+        <v>140</v>
+      </c>
+      <c r="W20" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["greataxe",6,4,12,8],["greataxe",6,4,12,8]]</v>
+      </c>
+      <c r="X20">
         <v>4</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>1100</v>
-      </c>
-      <c r="AE20" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF20" s="1">
-        <f t="shared" si="6"/>
-        <v>4</v>
       </c>
       <c r="AG20" s="1">
         <f t="shared" si="7"/>
@@ -2888,38 +3048,46 @@
       </c>
       <c r="AI20" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK20" s="1">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="1">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G21" s="5">
         <v>18</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I21" s="6">
@@ -2929,54 +3097,54 @@
       <c r="J21" s="7">
         <v>42</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="11">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M21" s="5">
+        <v>40</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N21" s="5">
         <v>5</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>8</v>
       </c>
-      <c r="O21" s="5">
+      <c r="P21" s="5">
         <v>18</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <v>12</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="R21" s="5">
         <v>18</v>
       </c>
-      <c r="R21" s="5">
+      <c r="S21" s="5">
         <v>12</v>
       </c>
-      <c r="S21" s="5">
+      <c r="T21" s="5">
         <v>11</v>
       </c>
-      <c r="T21" s="4">
+      <c r="U21" s="4">
         <v>12</v>
       </c>
-      <c r="U21" t="s">
-        <v>122</v>
-      </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
-      <c r="W21">
+      <c r="V21" t="s">
+        <v>141</v>
+      </c>
+      <c r="W21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["greataxe",6,4,12]]</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21">
         <v>450</v>
-      </c>
-      <c r="AE21" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF21" s="1">
-        <f t="shared" si="6"/>
-        <v>4</v>
       </c>
       <c r="AG21" s="1">
         <f t="shared" si="7"/>
@@ -2992,34 +3160,42 @@
       </c>
       <c r="AJ21" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK21" s="1">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL21" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G22" s="5">
         <v>12</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I22" s="6">
@@ -3029,57 +3205,57 @@
       <c r="J22" s="7">
         <v>5</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="11">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="5">
-        <v>2</v>
-      </c>
-      <c r="N22" s="4">
+        <v>4</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
+        <v>2</v>
+      </c>
+      <c r="O22" s="4">
         <v>6</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="5">
         <v>7</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <v>15</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="R22" s="5">
         <v>9</v>
       </c>
-      <c r="R22" s="5">
+      <c r="S22" s="5">
         <v>8</v>
       </c>
-      <c r="S22" s="5">
+      <c r="T22" s="5">
         <v>7</v>
       </c>
-      <c r="T22" s="4">
+      <c r="U22" s="4">
         <v>8</v>
       </c>
-      <c r="U22" t="s">
-        <v>124</v>
-      </c>
-      <c r="V22">
+      <c r="V22" t="s">
+        <v>142</v>
+      </c>
+      <c r="W22" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["dagger",4,2,4]]</v>
+      </c>
+      <c r="X22">
         <v>0.125</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>25</v>
       </c>
-      <c r="AC22" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE22" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AF22" s="1">
-        <f t="shared" si="6"/>
-        <v>-2</v>
+      <c r="AE22" t="s">
+        <v>102</v>
       </c>
       <c r="AG22" s="1">
         <f t="shared" si="7"/>
@@ -3087,42 +3263,50 @@
       </c>
       <c r="AH22" s="1">
         <f t="shared" si="8"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AJ22" s="1">
         <f t="shared" si="10"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AK22" s="1">
         <f t="shared" si="11"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL22" s="1">
+        <f t="shared" si="12"/>
+        <v>-2</v>
+      </c>
+      <c r="AM22" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="G23" s="5">
         <v>13</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I23" s="6">
@@ -3132,54 +3316,54 @@
       <c r="J23" s="7">
         <v>13</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="11">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M23" s="5">
-        <v>2</v>
-      </c>
-      <c r="N23" s="4">
+        <v>12</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="5">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4">
         <v>8</v>
       </c>
-      <c r="O23" s="5">
-        <v>10</v>
-      </c>
       <c r="P23" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="5">
         <v>14</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="R23" s="5">
         <v>15</v>
       </c>
-      <c r="R23" s="5">
+      <c r="S23" s="5">
         <v>6</v>
       </c>
-      <c r="S23" s="5">
+      <c r="T23" s="5">
         <v>8</v>
       </c>
-      <c r="T23" s="4">
+      <c r="U23" s="4">
         <v>5</v>
       </c>
-      <c r="U23" t="s">
-        <v>129</v>
-      </c>
-      <c r="V23">
+      <c r="V23" t="s">
+        <v>143</v>
+      </c>
+      <c r="W23" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["shortsword",4,2,6]]</v>
+      </c>
+      <c r="X23">
         <v>0.25</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>50</v>
-      </c>
-      <c r="AE23" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AF23" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="AG23" s="1">
         <f t="shared" si="7"/>
@@ -3187,42 +3371,50 @@
       </c>
       <c r="AH23" s="1">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="1">
         <f t="shared" si="9"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ23" s="1">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="1">
         <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+      <c r="AL23" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="AM23" s="1">
+        <f t="shared" si="13"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="G24" s="5">
         <v>18</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="I24" s="6">
@@ -3232,54 +3424,54 @@
       <c r="J24" s="7">
         <v>11</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="11">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="5">
-        <v>2</v>
-      </c>
-      <c r="N24" s="4">
+        <v>10</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="5">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4">
         <v>8</v>
       </c>
-      <c r="O24" s="5">
+      <c r="P24" s="5">
         <v>13</v>
-      </c>
-      <c r="P24" s="5">
-        <v>12</v>
       </c>
       <c r="Q24" s="5">
         <v>12</v>
       </c>
       <c r="R24" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S24" s="5">
         <v>10</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
+        <v>10</v>
+      </c>
+      <c r="U24" s="4">
         <v>9</v>
       </c>
-      <c r="U24" t="s">
-        <v>131</v>
-      </c>
-      <c r="V24">
+      <c r="V24" t="s">
+        <v>144</v>
+      </c>
+      <c r="W24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["longsword",3,1,8]]</v>
+      </c>
+      <c r="X24">
         <v>0.5</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>100</v>
-      </c>
-      <c r="AE24" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF24" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
       <c r="AG24" s="1">
         <f t="shared" si="7"/>
@@ -3291,95 +3483,103 @@
       </c>
       <c r="AI24" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24" s="1">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="1">
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G25" s="5">
         <v>16</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" ref="H25:H27" si="16">G25-(10+AG25)</f>
+        <f t="shared" ref="H25:H27" si="18">G25-(10+AI25)</f>
         <v>5</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" ref="I25" si="17">G25</f>
+        <f t="shared" ref="I25" si="19">G25</f>
         <v>16</v>
       </c>
       <c r="J25" s="7">
         <v>11</v>
       </c>
-      <c r="K25" s="2">
-        <f t="shared" ref="K25" si="18">(_xlfn.CEILING.MATH(N25/2)+AH25)*M25</f>
-        <v>10</v>
+      <c r="K25" s="11">
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" ref="L25" si="19">J25-K25</f>
-        <v>1</v>
-      </c>
-      <c r="M25" s="5">
-        <v>2</v>
-      </c>
-      <c r="N25" s="4">
+        <f t="shared" ref="L25" si="20">(_xlfn.CEILING.MATH(O25/2)+AJ25)*N25</f>
+        <v>10</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" ref="M25" si="21">J25-L25</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="5">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4">
         <v>8</v>
       </c>
-      <c r="O25" s="5">
+      <c r="P25" s="5">
         <v>13</v>
-      </c>
-      <c r="P25" s="5">
-        <v>12</v>
       </c>
       <c r="Q25" s="5">
         <v>12</v>
       </c>
       <c r="R25" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S25" s="5">
         <v>10</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
+        <v>10</v>
+      </c>
+      <c r="U25" s="4">
         <v>9</v>
       </c>
-      <c r="U25" t="s">
-        <v>135</v>
-      </c>
-      <c r="V25">
+      <c r="V25" t="s">
+        <v>145</v>
+      </c>
+      <c r="W25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["longsword",3,1,10]]</v>
+      </c>
+      <c r="X25">
         <v>0.5</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>100</v>
-      </c>
-      <c r="AE25" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF25" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
       </c>
       <c r="AG25" s="1">
         <f t="shared" si="7"/>
@@ -3391,38 +3591,46 @@
       </c>
       <c r="AI25" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="1">
         <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="1">
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="G26" s="5">
         <v>17</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I26" s="6">
@@ -3432,57 +3640,57 @@
       <c r="J26" s="7">
         <v>39</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="11">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N26" s="5">
         <v>6</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>12</v>
       </c>
-      <c r="O26" s="5">
+      <c r="P26" s="5">
         <v>15</v>
-      </c>
-      <c r="P26" s="5">
-        <v>14</v>
       </c>
       <c r="Q26" s="5">
         <v>14</v>
       </c>
       <c r="R26" s="5">
+        <v>14</v>
+      </c>
+      <c r="S26" s="5">
         <v>12</v>
       </c>
-      <c r="S26" s="5">
-        <v>10</v>
-      </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
+        <v>10</v>
+      </c>
+      <c r="U26" s="4">
         <v>13</v>
       </c>
-      <c r="U26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V26">
+      <c r="V26" t="s">
+        <v>146</v>
+      </c>
+      <c r="W26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["greatsword",4,2,6,6],["greatsword",4,2,6,6],["martial advantage",4,2,6,6,6]]</v>
+      </c>
+      <c r="X26">
         <v>3</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>700</v>
       </c>
-      <c r="AC26" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE26" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AF26" s="1">
-        <f t="shared" si="6"/>
-        <v>2</v>
+      <c r="AE26" t="s">
+        <v>112</v>
       </c>
       <c r="AG26" s="1">
         <f t="shared" si="7"/>
@@ -3494,38 +3702,46 @@
       </c>
       <c r="AI26" s="1">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ26" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK26" s="1">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL26" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM26" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="G27" s="5">
         <v>20</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="I27" s="6">
@@ -3535,54 +3751,54 @@
       <c r="J27" s="7">
         <v>97</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="11">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="M27" s="5">
+      <c r="N27" s="5">
         <v>13</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>8</v>
       </c>
-      <c r="O27" s="5">
+      <c r="P27" s="5">
         <v>16</v>
       </c>
-      <c r="P27" s="5">
+      <c r="Q27" s="5">
         <v>14</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="R27" s="5">
         <v>16</v>
       </c>
-      <c r="R27" s="5">
+      <c r="S27" s="5">
         <v>14</v>
       </c>
-      <c r="S27" s="5">
+      <c r="T27" s="5">
         <v>11</v>
       </c>
-      <c r="T27" s="4">
+      <c r="U27" s="4">
         <v>15</v>
       </c>
-      <c r="U27" t="s">
-        <v>140</v>
-      </c>
-      <c r="V27">
+      <c r="V27" t="s">
+        <v>147</v>
+      </c>
+      <c r="W27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["longsword",9,3,8],["longsword",9,3,8],["longsword",9,3,8],["martial advantage",9,3,6,6,6,6]]</v>
+      </c>
+      <c r="X27">
         <v>6</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>2300</v>
-      </c>
-      <c r="AE27" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AF27" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
       </c>
       <c r="AG27" s="1">
         <f t="shared" si="7"/>
@@ -3598,91 +3814,99 @@
       </c>
       <c r="AJ27" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK27" s="1">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL27" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G28" s="5">
         <v>18</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" ref="H28:H29" si="20">G28-(10+AG28)</f>
+        <f t="shared" ref="H28:H29" si="22">G28-(10+AI28)</f>
         <v>6</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" ref="I28" si="21">G28</f>
+        <f t="shared" ref="I28" si="23">G28</f>
         <v>18</v>
       </c>
       <c r="J28" s="7">
         <v>97</v>
       </c>
-      <c r="K28" s="2">
-        <f t="shared" ref="K28" si="22">(_xlfn.CEILING.MATH(N28/2)+AH28)*M28</f>
+      <c r="K28" s="11">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" ref="L28" si="24">(_xlfn.CEILING.MATH(O28/2)+AJ28)*N28</f>
         <v>91</v>
       </c>
-      <c r="L28" s="2">
-        <f t="shared" ref="L28" si="23">J28-K28</f>
+      <c r="M28" s="2">
+        <f t="shared" ref="M28" si="25">J28-L28</f>
         <v>6</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N28" s="5">
         <v>13</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>8</v>
       </c>
-      <c r="O28" s="5">
+      <c r="P28" s="5">
         <v>16</v>
       </c>
-      <c r="P28" s="5">
+      <c r="Q28" s="5">
         <v>14</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="R28" s="5">
         <v>16</v>
       </c>
-      <c r="R28" s="5">
+      <c r="S28" s="5">
         <v>14</v>
       </c>
-      <c r="S28" s="5">
+      <c r="T28" s="5">
         <v>11</v>
       </c>
-      <c r="T28" s="4">
+      <c r="U28" s="4">
         <v>15</v>
       </c>
-      <c r="U28" t="s">
-        <v>144</v>
-      </c>
-      <c r="V28">
+      <c r="V28" t="s">
+        <v>148</v>
+      </c>
+      <c r="W28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["longsword",9,3,10],["longsword",9,3,10],["longsword",9,3,10],["martial advantage",9,3,6,6,6,6]]</v>
+      </c>
+      <c r="X28">
         <v>6</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>2300</v>
-      </c>
-      <c r="AE28" s="1">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AF28" s="1">
-        <f t="shared" si="6"/>
-        <v>3</v>
       </c>
       <c r="AG28" s="1">
         <f t="shared" si="7"/>
@@ -3698,34 +3922,42 @@
       </c>
       <c r="AJ28" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK28" s="1">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL28" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="1">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G29" s="5">
         <v>25</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="I29" s="6">
@@ -3735,57 +3967,57 @@
       <c r="J29" s="7">
         <v>676</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="11">
         <f t="shared" si="3"/>
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="4"/>
+        <v>660</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="M29" s="5">
+      <c r="N29" s="5">
         <v>33</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <v>20</v>
       </c>
-      <c r="O29" s="5">
+      <c r="P29" s="5">
         <v>30</v>
       </c>
-      <c r="P29" s="5">
+      <c r="Q29" s="5">
         <v>11</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="R29" s="5">
         <v>30</v>
       </c>
-      <c r="R29" s="5">
+      <c r="S29" s="5">
         <v>3</v>
       </c>
-      <c r="S29" s="5">
+      <c r="T29" s="5">
         <v>11</v>
       </c>
-      <c r="T29" s="4">
+      <c r="U29" s="4">
         <v>11</v>
       </c>
-      <c r="U29" t="s">
-        <v>148</v>
-      </c>
-      <c r="V29">
+      <c r="V29" t="s">
+        <v>149</v>
+      </c>
+      <c r="W29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>[["bite",19,10,12,12,12,12],["claw",19,10,8,8,8,8],["claw",19,10,8,8,8,8],["horns",19,10,10,10,10,10],["tail",19,10,6,6,6,6]]</v>
+      </c>
+      <c r="X29">
         <v>30</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>1555000</v>
       </c>
-      <c r="AC29" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE29" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="1">
-        <f t="shared" si="6"/>
-        <v>10</v>
+      <c r="AE29" t="s">
+        <v>119</v>
       </c>
       <c r="AG29" s="1">
         <f t="shared" si="7"/>
@@ -3797,14 +4029,22 @@
       </c>
       <c r="AI29" s="1">
         <f t="shared" si="9"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK29" s="1">
         <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+      <c r="AL29" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="1">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3826,87 +4066,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
